--- a/HP/zj/202106.xlsx
+++ b/HP/zj/202106.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>2021年05月份旅差费</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>取一台海尔显示器回公司</t>
+  </si>
+  <si>
+    <t>2021.06.23上午</t>
+  </si>
+  <si>
+    <t>送两台海尔主机和一台显示器到农林</t>
+  </si>
+  <si>
+    <t>2021.06.23下午</t>
+  </si>
+  <si>
+    <t>公司-高州市金塘镇正街-公司</t>
+  </si>
+  <si>
+    <t>HP台式机换电源</t>
   </si>
   <si>
     <t>、</t>
@@ -85,7 +100,7 @@
     <numFmt numFmtId="185" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="186" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="37">
+  <fonts count="38" x14ac:knownFonts="38">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -321,6 +336,11 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -702,7 +722,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1173,13 +1193,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1529,6 +1594,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1550,8 +1624,8 @@
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1618,31 +1692,55 @@
         <v>14</v>
       </c>
       <c r="H6" s="11">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="64.499016" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="14"/>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="28.499565" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="11">
+        <v>34.0</v>
+      </c>
+      <c r="I7" s="122" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="36.74944" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="123" t="s">
+        <v>19</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="14"/>
+      <c r="I8" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="14"/>
@@ -1817,7 +1915,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -1829,11 +1927,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202106.xlsx
+++ b/HP/zj/202106.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
-  <si>
-    <t>2021年05月份旅差费</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+  <si>
+    <t>2021年06月份旅差费</t>
   </si>
   <si>
     <t>单号</t>
@@ -68,10 +68,19 @@
     <t>送两台海尔主机和一台显示器到农林</t>
   </si>
   <si>
+    <t>WO-014261879</t>
+  </si>
+  <si>
     <t>2021.06.23下午</t>
   </si>
   <si>
-    <t>公司-高州市金塘镇正街-公司</t>
+    <t>公司-高州市金塘镇正南街-公司</t>
+  </si>
+  <si>
+    <t>赵夏儒</t>
+  </si>
+  <si>
+    <t>27*2</t>
   </si>
   <si>
     <t>HP台式机换电源</t>
@@ -722,7 +731,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1193,58 +1202,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1596,13 +1560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1625,7 +1583,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1642,7 +1600,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="121" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1702,7 +1660,7 @@
       <c r="B7" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="72" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -1720,26 +1678,34 @@
       <c r="H7" s="11">
         <v>34.0</v>
       </c>
-      <c r="I7" s="122" t="s">
+      <c r="I7" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="36.74944" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="14"/>
-      <c r="C8" s="121" t="s">
+      <c r="B8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="123" t="s">
+      <c r="C8" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
+      <c r="D8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11">
+        <v>54</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
@@ -1915,7 +1881,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="11"/>
@@ -1927,11 +1893,11 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(H6:H26)</f>
-        <v>68</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
